--- a/StructureDefinition-ext-R5-Evidence.statistic.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.statistic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `Evidence.statistic` 0..* `BackboneElement`
 *  R4B: `Evidence.statistic` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Evidence.statistic` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Evidence</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.description` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.description` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.description` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -423,7 +423,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.note` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.note` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.note` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -455,7 +455,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.statisticType` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.statisticType` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.statisticType` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:statisticType.id</t>
@@ -496,7 +496,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.category` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.category` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.category` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:category.id</t>
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.quantity` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.quantity` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.quantity` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:quantity.id</t>
@@ -559,7 +559,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.numberOfEvents` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.numberOfEvents` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.numberOfEvents` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:numberOfEvents.id</t>
@@ -594,7 +594,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.numberAffected` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.numberAffected` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.numberAffected` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:numberAffected.id</t>
@@ -622,7 +622,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.sampleSize` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.id</t>
@@ -641,7 +641,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.description` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.description` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.sampleSize.description` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:description.id</t>
@@ -678,7 +678,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.note` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.note` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.sampleSize.note` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:note.id</t>
@@ -706,7 +706,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.numberOfStudies` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.numberOfStudies` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.sampleSize.numberOfStudies` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:numberOfStudies.id</t>
@@ -734,7 +734,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.numberOfParticipants` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.numberOfParticipants` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.sampleSize.numberOfParticipants` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:numberOfParticipants.id</t>
@@ -762,7 +762,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.knownDataCount` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.knownDataCount` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.sampleSize.knownDataCount` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:knownDataCount.id</t>
@@ -809,7 +809,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.attributeEstimate` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.attributeEstimate` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.id</t>
@@ -840,7 +840,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.id</t>
@@ -862,7 +862,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.code` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.code` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic.code` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:code.id</t>
@@ -893,7 +893,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.value` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.value` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic.value` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:value.id</t>
@@ -925,7 +925,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic.variable` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.id</t>
@@ -947,7 +947,8 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:variableDefinition.id</t>
@@ -991,7 +992,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.handling` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.handling` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.handling` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:handling.id</t>
@@ -1029,7 +1030,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory.id</t>
@@ -1057,7 +1058,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueQuantity.id</t>
@@ -1085,7 +1086,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.valueRange` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueRange` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.valueRange` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueRange.id</t>
@@ -1123,7 +1124,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.attributeEstimate` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.attributeEstimate` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.statistic.modelCharacteristic.attributeEstimate` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:attributeEstimate.id</t>
@@ -1484,7 +1485,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="173.27734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="224.1484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Evidence.statistic.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.statistic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4175" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5324" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `Evidence.statistic` 0..* `BackboneElement`
 *  R4B: `Evidence.statistic` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Evidence.statistic` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.description` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.description` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -387,6 +387,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.description</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,7 +426,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.note` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.note` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -433,6 +436,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -455,7 +461,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.statisticType` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.statisticType` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.statisticType` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:statisticType.id</t>
@@ -465,6 +471,9 @@
   </si>
   <si>
     <t>Extension.extension:statisticType.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.statisticType</t>
   </si>
   <si>
     <t>Extension.extension:statisticType.value[x]</t>
@@ -496,7 +505,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.category` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.category` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.category` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:category.id</t>
@@ -508,6 +517,9 @@
     <t>Extension.extension:category.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.category</t>
+  </si>
+  <si>
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
@@ -524,7 +536,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.quantity` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.quantity` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.quantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:quantity.id</t>
@@ -534,6 +546,9 @@
   </si>
   <si>
     <t>Extension.extension:quantity.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.quantity</t>
   </si>
   <si>
     <t>Extension.extension:quantity.value[x]</t>
@@ -559,7 +574,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.numberOfEvents` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.numberOfEvents` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.numberOfEvents` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:numberOfEvents.id</t>
@@ -569,6 +584,9 @@
   </si>
   <si>
     <t>Extension.extension:numberOfEvents.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.numberOfEvents</t>
   </si>
   <si>
     <t>Extension.extension:numberOfEvents.value[x]</t>
@@ -594,7 +612,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.numberAffected` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.numberAffected` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.numberAffected` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:numberAffected.id</t>
@@ -606,6 +624,9 @@
     <t>Extension.extension:numberAffected.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.numberAffected</t>
+  </si>
+  <si>
     <t>Extension.extension:numberAffected.value[x]</t>
   </si>
   <si>
@@ -622,7 +643,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.sampleSize` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.id</t>
@@ -641,7 +662,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.description` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.description` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.sampleSize.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:description.id</t>
@@ -662,6 +683,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.description</t>
+  </si>
+  <si>
     <t>Extension.extension:sampleSize.extension:description.value[x]</t>
   </si>
   <si>
@@ -678,7 +702,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.note` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.note` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.sampleSize.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:note.id</t>
@@ -690,6 +714,9 @@
     <t>Extension.extension:sampleSize.extension:note.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.note</t>
+  </si>
+  <si>
     <t>Extension.extension:sampleSize.extension:note.value[x]</t>
   </si>
   <si>
@@ -706,7 +733,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.numberOfStudies` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.numberOfStudies` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.sampleSize.numberOfStudies` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:numberOfStudies.id</t>
@@ -718,6 +745,9 @@
     <t>Extension.extension:sampleSize.extension:numberOfStudies.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.numberOfStudies</t>
+  </si>
+  <si>
     <t>Extension.extension:sampleSize.extension:numberOfStudies.value[x]</t>
   </si>
   <si>
@@ -734,7 +764,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.numberOfParticipants` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.numberOfParticipants` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.sampleSize.numberOfParticipants` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:numberOfParticipants.id</t>
@@ -746,6 +776,9 @@
     <t>Extension.extension:sampleSize.extension:numberOfParticipants.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.numberOfParticipants</t>
+  </si>
+  <si>
     <t>Extension.extension:sampleSize.extension:numberOfParticipants.value[x]</t>
   </si>
   <si>
@@ -762,7 +795,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.sampleSize.knownDataCount` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.knownDataCount` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.sampleSize.knownDataCount` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:knownDataCount.id</t>
@@ -772,6 +805,9 @@
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:knownDataCount.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.knownDataCount</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:knownDataCount.value[x]</t>
@@ -809,7 +845,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.attributeEstimate` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.id</t>
@@ -818,12 +854,228 @@
     <t>Extension.extension:attributeEstimate.extension</t>
   </si>
   <si>
+    <t>Extension.extension:attributeEstimate.extension:description</t>
+  </si>
+  <si>
+    <t>Textual description of the attribute estimate</t>
+  </si>
+  <si>
+    <t>Human-readable summary of the estimate.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.statistic.attributeEstimate.description` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
+Element `Evidence.statistic.attributeEstimate.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:description.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:description.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:description.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.description</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:description.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:note</t>
+  </si>
+  <si>
+    <t>Footnote or explanatory note about the estimate</t>
+  </si>
+  <si>
+    <t>Footnote or explanatory note about the estimate.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.statistic.attributeEstimate.note` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
+Element `Evidence.statistic.attributeEstimate.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:note.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:note.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.note</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:note.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>The type of attribute estimate, e.g., confidence interval or p value</t>
+  </si>
+  <si>
+    <t>The type of attribute estimate, e.g., confidence interval or p value.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.statistic.attributeEstimate.type` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
+Element `Evidence.statistic.attributeEstimate.type` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.type</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:type.value[x]</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-attribute-estimate-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:quantity</t>
+  </si>
+  <si>
+    <t>The singular quantity of the attribute estimate, for attribute estimates represented as single values; also used to report unit of measure</t>
+  </si>
+  <si>
+    <t>The singular quantity of the attribute estimate, for attribute estimates represented as single values; also used to report unit of measure.</t>
+  </si>
+  <si>
+    <t>Often the p value</t>
+  </si>
+  <si>
+    <t>Element `Evidence.statistic.attributeEstimate.quantity` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
+Element `Evidence.statistic.attributeEstimate.quantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:quantity.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:quantity.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:quantity.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.quantity</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:quantity.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:level</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Level of confidence interval, e.g., 0.95 for 95% confidence interval</t>
+  </si>
+  <si>
+    <t>Use 95 for a 95% confidence interval.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.statistic.attributeEstimate.level` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
+Element `Evidence.statistic.attributeEstimate.level` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:level.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:level.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:level.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.level</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:level.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:range</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Lower and upper bound values of the attribute estimate</t>
+  </si>
+  <si>
+    <t>Lower bound of confidence interval.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.statistic.attributeEstimate.range` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
+Element `Evidence.statistic.attributeEstimate.range` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:range.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:range.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:range.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.range</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:range.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:attributeEstimate</t>
+  </si>
+  <si>
+    <t>A nested attribute estimate; which is the attribute estimate of an attribute estimate</t>
+  </si>
+  <si>
+    <t>A nested attribute estimate; which is the attribute estimate of an attribute estimate.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.statistic.attributeEstimate.attributeEstimate` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
+Element `Evidence.statistic.attributeEstimate.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:attributeEstimate.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:attributeEstimate.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:attributeEstimate.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate</t>
+  </si>
+  <si>
+    <t>Extension.extension:attributeEstimate.extension:attributeEstimate.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension:attributeEstimate.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate</t>
-  </si>
-  <si>
     <t>Extension.extension:attributeEstimate.value[x]</t>
   </si>
   <si>
@@ -840,7 +1092,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.id</t>
@@ -862,7 +1114,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.code` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.code` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.code` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:code.id</t>
@@ -874,6 +1126,9 @@
     <t>Extension.extension:modelCharacteristic.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.code</t>
+  </si>
+  <si>
     <t>Extension.extension:modelCharacteristic.extension:code.value[x]</t>
   </si>
   <si>
@@ -893,7 +1148,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.value` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.value` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.value` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:value.id</t>
@@ -903,6 +1158,9 @@
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.value</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:value.value[x]</t>
@@ -925,7 +1183,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.variable` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.id</t>
@@ -948,7 +1206,7 @@
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:variableDefinition.id</t>
@@ -967,6 +1225,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.variableDefinition</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:variableDefinition.value[x]</t>
@@ -992,7 +1253,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.handling` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.handling` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.handling` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:handling.id</t>
@@ -1002,6 +1263,9 @@
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:handling.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.handling</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:handling.value[x]</t>
@@ -1030,7 +1294,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory.id</t>
@@ -1042,6 +1306,9 @@
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.valueCategory</t>
+  </si>
+  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory.value[x]</t>
   </si>
   <si>
@@ -1058,7 +1325,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueQuantity.id</t>
@@ -1070,6 +1337,9 @@
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueQuantity.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.valueQuantity</t>
+  </si>
+  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueQuantity.value[x]</t>
   </si>
   <si>
@@ -1086,7 +1356,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.variable.valueRange` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueRange` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.variable.valueRange` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueRange.id</t>
@@ -1098,13 +1368,12 @@
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueRange.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.valueRange</t>
+  </si>
+  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueRange.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Range
-</t>
-  </si>
-  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.url</t>
   </si>
   <si>
@@ -1124,7 +1393,7 @@
   </si>
   <si>
     <t>Element `Evidence.statistic.modelCharacteristic.attributeEstimate` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.attributeEstimate` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.statistic.modelCharacteristic.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:attributeEstimate.id</t>
@@ -1462,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK126"/>
+  <dimension ref="A1:AK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1496,7 +1765,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.21875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2291,7 +2560,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2333,7 +2602,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2348,15 +2617,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2379,7 +2648,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2436,7 +2705,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2448,21 +2717,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2487,14 +2756,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2563,7 +2832,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2666,7 +2935,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2771,7 +3040,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2814,7 +3083,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2856,7 +3125,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2871,15 +3140,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2902,13 +3171,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2959,7 +3228,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2971,21 +3240,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3010,14 +3279,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3086,7 +3355,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3189,7 +3458,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3294,7 +3563,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3337,7 +3606,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3379,7 +3648,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3394,15 +3663,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3425,13 +3694,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3458,11 +3727,11 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3480,7 +3749,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3492,21 +3761,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3531,16 +3800,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3609,7 +3878,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3712,7 +3981,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3817,7 +4086,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3860,7 +4129,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3902,7 +4171,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3917,15 +4186,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3948,16 +4217,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4007,7 +4276,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4019,21 +4288,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4058,14 +4327,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4134,7 +4403,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4237,7 +4506,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4342,7 +4611,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4385,7 +4654,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4427,7 +4696,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4442,15 +4711,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4473,13 +4742,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4530,7 +4799,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4542,21 +4811,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4581,16 +4850,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4659,7 +4928,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4762,7 +5031,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4867,7 +5136,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4910,7 +5179,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4952,7 +5221,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4967,15 +5236,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4998,16 +5267,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5057,7 +5326,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5069,21 +5338,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5108,16 +5377,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5186,7 +5455,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5289,7 +5558,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5394,7 +5663,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5437,7 +5706,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5479,7 +5748,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5494,15 +5763,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5525,16 +5794,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5584,7 +5853,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5596,21 +5865,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5635,14 +5904,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5711,7 +5980,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5814,7 +6083,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5917,7 +6186,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
@@ -5948,14 +6217,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6024,10 +6293,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6127,10 +6396,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6232,10 +6501,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6275,7 +6544,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6317,7 +6586,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6332,15 +6601,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6363,13 +6632,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6420,7 +6689,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6432,21 +6701,21 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6471,14 +6740,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6547,10 +6816,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6650,10 +6919,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6755,10 +7024,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6798,7 +7067,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6840,7 +7109,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6855,15 +7124,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6886,13 +7155,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6943,7 +7212,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6955,21 +7224,21 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6994,14 +7263,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7070,10 +7339,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7173,10 +7442,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7278,10 +7547,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7321,7 +7590,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7363,7 +7632,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7378,15 +7647,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7409,13 +7678,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7466,7 +7735,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7478,21 +7747,21 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7517,14 +7786,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7593,10 +7862,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7696,10 +7965,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7801,10 +8070,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7844,7 +8113,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7886,7 +8155,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -7901,15 +8170,15 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7932,13 +8201,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7989,7 +8258,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8001,21 +8270,21 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8040,14 +8309,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8116,10 +8385,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8219,10 +8488,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8324,10 +8593,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8367,7 +8636,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8409,7 +8678,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -8424,15 +8693,15 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8455,13 +8724,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8512,7 +8781,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8524,15 +8793,15 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8575,7 +8844,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8617,7 +8886,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -8632,15 +8901,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8663,13 +8932,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8720,7 +8989,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8732,21 +9001,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8771,14 +9040,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8847,7 +9116,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -8950,14 +9219,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -8979,14 +9248,12 @@
         <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9050,23 +9317,25 @@
         <v>84</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>86</v>
@@ -9081,24 +9350,24 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9140,30 +9409,30 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9174,7 +9443,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -9186,13 +9455,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9243,7 +9512,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9255,24 +9524,22 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9294,15 +9561,15 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -9338,16 +9605,16 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>98</v>
@@ -9365,15 +9632,15 @@
         <v>84</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9381,7 +9648,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>86</v>
@@ -9396,22 +9663,24 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9453,10 +9722,10 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>86</v>
@@ -9468,15 +9737,15 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9484,10 +9753,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -9499,13 +9768,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>32</v>
+        <v>268</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9544,55 +9813,55 @@
         <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -9607,14 +9876,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9683,10 +9952,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9786,10 +10055,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9891,10 +10160,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9934,7 +10203,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9976,7 +10245,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>86</v>
@@ -9991,15 +10260,15 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10007,7 +10276,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>86</v>
@@ -10022,13 +10291,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10055,11 +10324,13 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
@@ -10077,7 +10348,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10089,21 +10360,21 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10128,14 +10399,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10204,10 +10475,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10307,10 +10578,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10412,10 +10683,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10455,7 +10726,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10497,7 +10768,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -10512,15 +10783,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10543,13 +10814,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10576,13 +10847,11 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10600,7 +10869,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10612,21 +10881,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10636,7 +10905,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -10651,14 +10920,16 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O88" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10727,10 +10998,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10830,18 +11101,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -10859,12 +11130,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -10928,19 +11201,17 @@
         <v>84</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>77</v>
       </c>
@@ -10961,24 +11232,24 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11020,30 +11291,30 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11066,15 +11337,17 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
@@ -11123,7 +11396,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11135,29 +11408,31 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="D93" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -11172,15 +11447,15 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>109</v>
+        <v>308</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
       </c>
@@ -11216,16 +11491,16 @@
         <v>77</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>98</v>
@@ -11243,15 +11518,15 @@
         <v>84</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11259,7 +11534,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>86</v>
@@ -11274,24 +11549,22 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>77</v>
@@ -11333,10 +11606,10 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>86</v>
@@ -11348,26 +11621,26 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -11379,15 +11652,17 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>305</v>
+        <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11424,52 +11699,50 @@
         <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>86</v>
@@ -11484,24 +11757,24 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11543,30 +11816,30 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11589,13 +11862,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11646,7 +11919,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11658,29 +11931,31 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D98" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
@@ -11695,15 +11970,15 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
       </c>
@@ -11739,16 +12014,16 @@
         <v>77</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>98</v>
@@ -11766,15 +12041,15 @@
         <v>84</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11782,7 +12057,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>86</v>
@@ -11797,24 +12072,22 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -11856,10 +12129,10 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>86</v>
@@ -11871,26 +12144,26 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -11902,15 +12175,17 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>308</v>
+        <v>109</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -11935,65 +12210,65 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="Y100" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z100" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -12005,24 +12280,24 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12064,30 +12339,30 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12110,13 +12385,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12167,7 +12442,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12179,22 +12454,24 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D103" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -12216,15 +12493,17 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
       </c>
@@ -12260,16 +12539,16 @@
         <v>77</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>98</v>
@@ -12287,15 +12566,15 @@
         <v>84</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12303,7 +12582,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>86</v>
@@ -12318,24 +12597,22 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12377,10 +12654,10 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>86</v>
@@ -12392,26 +12669,26 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
@@ -12423,15 +12700,17 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12468,55 +12747,53 @@
         <v>77</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>77</v>
@@ -12528,24 +12805,24 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12587,30 +12864,30 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12621,7 +12898,7 @@
         <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>77</v>
@@ -12633,13 +12910,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12690,7 +12967,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -12702,29 +12979,29 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>77</v>
@@ -12736,16 +13013,16 @@
         <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -12753,7 +13030,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12783,42 +13060,42 @@
         <v>77</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12826,10 +13103,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>77</v>
@@ -12841,24 +13118,22 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -12900,10 +13175,10 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>86</v>
@@ -12912,20 +13187,22 @@
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C110" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
       </c>
@@ -12934,7 +13211,7 @@
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>77</v>
@@ -12946,16 +13223,18 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
       </c>
@@ -13003,34 +13282,32 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
         <v>77</v>
       </c>
@@ -13039,7 +13316,7 @@
         <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>77</v>
@@ -13051,18 +13328,16 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>77</v>
       </c>
@@ -13110,30 +13385,30 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13141,10 +13416,10 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>77</v>
@@ -13156,13 +13431,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13201,53 +13476,55 @@
         <v>77</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D113" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>77</v>
@@ -13262,15 +13539,15 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>109</v>
+        <v>348</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O113" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
       </c>
@@ -13306,16 +13583,16 @@
         <v>77</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>98</v>
@@ -13333,15 +13610,15 @@
         <v>84</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13349,7 +13626,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>86</v>
@@ -13364,24 +13641,22 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -13423,10 +13698,10 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>86</v>
@@ -13438,26 +13713,26 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>77</v>
@@ -13469,15 +13744,17 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>345</v>
+        <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>338</v>
+        <v>109</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13514,42 +13791,42 @@
         <v>77</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13589,7 +13866,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13631,7 +13908,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>86</v>
@@ -13646,15 +13923,15 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13662,10 +13939,10 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>77</v>
@@ -13677,13 +13954,13 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -13710,13 +13987,11 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -13734,7 +14009,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -13746,21 +14021,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>249</v>
+        <v>358</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -13770,7 +14045,7 @@
         <v>78</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>77</v>
@@ -13785,14 +14060,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -13861,10 +14136,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -13964,10 +14239,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14069,10 +14344,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14112,7 +14387,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14154,7 +14429,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>86</v>
@@ -14169,15 +14444,15 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14188,7 +14463,7 @@
         <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>77</v>
@@ -14200,13 +14475,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14257,7 +14532,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -14269,29 +14544,31 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>77</v>
@@ -14303,24 +14580,24 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O123" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>77</v>
@@ -14362,30 +14639,30 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14396,7 +14673,7 @@
         <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>77</v>
@@ -14408,13 +14685,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -14465,7 +14742,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -14477,18 +14754,18 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14499,7 +14776,7 @@
         <v>86</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>77</v>
@@ -14511,24 +14788,22 @@
         <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>77</v>
@@ -14558,53 +14833,55 @@
         <v>77</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>77</v>
@@ -14616,16 +14893,18 @@
         <v>77</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>247</v>
+        <v>378</v>
       </c>
       <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
       </c>
@@ -14673,22 +14952,3675 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF130" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK126" t="s" s="2">
+      <c r="AG130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="P131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O133" s="2"/>
+      <c r="P133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O134" s="2"/>
+      <c r="P134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF134" t="s" s="2">
         <v>119</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q135" s="2"/>
+      <c r="R135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y135" s="2"/>
+      <c r="Z135" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="P141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O143" s="2"/>
+      <c r="P143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="P146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q146" s="2"/>
+      <c r="R146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q147" s="2"/>
+      <c r="R147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O148" s="2"/>
+      <c r="P148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O149" s="2"/>
+      <c r="P149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O151" s="2"/>
+      <c r="P151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q151" s="2"/>
+      <c r="R151" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q152" s="2"/>
+      <c r="R152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="D153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O158" s="2"/>
+      <c r="P158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q159" s="2"/>
+      <c r="R159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O160" s="2"/>
+      <c r="P160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q160" s="2"/>
+      <c r="R160" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q161" s="2"/>
+      <c r="R161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Evidence.statistic.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.statistic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -486,7 +486,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-statistic-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-statistic-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:category</t>
@@ -941,7 +941,7 @@
     <t>Extension.extension:attributeEstimate.extension:type.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-attribute-estimate-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-attribute-estimate-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:quantity</t>
@@ -1132,7 +1132,7 @@
     <t>Extension.extension:modelCharacteristic.extension:code.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-statistic-model-code-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-statistic-model-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:value</t>
@@ -1166,7 +1166,7 @@
     <t>Extension.extension:modelCharacteristic.extension:value.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
     <t>Extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable)
 </t>
   </si>
   <si>
@@ -1278,7 +1278,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-variable-handling-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-variable-handling-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory</t>
@@ -1765,7 +1765,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.75390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.2578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Evidence.statistic.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.statistic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5324" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5324" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -339,8 +339,7 @@
     <t>A description of the content value of the statistic.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.description` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -387,9 +386,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.description</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,8 +421,7 @@
     <t>Footnotes and/or explanatory notes.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.note` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -436,9 +431,6 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -460,8 +452,7 @@
     <t>Type of statistic, e.g., relative risk.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.statisticType` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.statisticType` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.statisticType` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:statisticType.id</t>
@@ -471,9 +462,6 @@
   </si>
   <si>
     <t>Extension.extension:statisticType.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.statisticType</t>
   </si>
   <si>
     <t>Extension.extension:statisticType.value[x]</t>
@@ -486,7 +474,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-statistic-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-statistic-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:category</t>
@@ -504,8 +492,7 @@
     <t>Simple strings can be used for descriptive purposes. Exact matching to EvidenceVariable.category.name for the Evidence.variableDefinition[variableRole=measuredVariable].observed=Reference(EvidenceVariable) could facilitate validation within datasets.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.category` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.category` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.category` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:category.id</t>
@@ -517,9 +504,6 @@
     <t>Extension.extension:category.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.category</t>
-  </si>
-  <si>
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
@@ -535,8 +519,7 @@
     <t>Statistic value.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.quantity` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.quantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.quantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:quantity.id</t>
@@ -546,9 +529,6 @@
   </si>
   <si>
     <t>Extension.extension:quantity.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.quantity</t>
   </si>
   <si>
     <t>Extension.extension:quantity.value[x]</t>
@@ -573,8 +553,7 @@
     <t>When the number of events is the statistic, use Evidence.statistic.quantity and set Evidence.statistic.type.coding.code=C25463 and Evidence.statistic.type.coding.display=Count. When the statistic is an Event Rate (where individual participants may have 2 or more events), use Evidence.statistic.numberOfEvents to record the total number of events rather than the number of participants with events.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.numberOfEvents` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.numberOfEvents` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.numberOfEvents` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:numberOfEvents.id</t>
@@ -584,9 +563,6 @@
   </si>
   <si>
     <t>Extension.extension:numberOfEvents.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.numberOfEvents</t>
   </si>
   <si>
     <t>Extension.extension:numberOfEvents.value[x]</t>
@@ -611,8 +587,7 @@
     <t>When the number affected is the statistic, use Evidence.statistic.quantity and set Evidence.statistic.type.coding.code=C25463 and Evidence.statistic.type.coding.display=Count. When the statistic is a Proportion, use Evidence.statistic.numberAffected and enter an integer as the value. When the statistic is an Event Rate (where individual participants may have 2 or more events), use Evidence.statistic.numberAffected to record the number of participants with events rather than the total number of events.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.numberAffected` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.numberAffected` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.numberAffected` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:numberAffected.id</t>
@@ -624,9 +599,6 @@
     <t>Extension.extension:numberAffected.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.numberAffected</t>
-  </si>
-  <si>
     <t>Extension.extension:numberAffected.value[x]</t>
   </si>
   <si>
@@ -642,8 +614,7 @@
     <t>Number of samples in the statistic.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.sampleSize` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.sampleSize` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.id</t>
@@ -661,8 +632,7 @@
     <t>Human-readable summary of population sample size.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.sampleSize.description` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.sampleSize.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:description.id</t>
@@ -683,9 +653,6 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.description</t>
-  </si>
-  <si>
     <t>Extension.extension:sampleSize.extension:description.value[x]</t>
   </si>
   <si>
@@ -701,8 +668,7 @@
     <t>Footnote or explanatory note about the sample size.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.sampleSize.note` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.sampleSize.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:note.id</t>
@@ -714,9 +680,6 @@
     <t>Extension.extension:sampleSize.extension:note.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.note</t>
-  </si>
-  <si>
     <t>Extension.extension:sampleSize.extension:note.value[x]</t>
   </si>
   <si>
@@ -732,8 +695,7 @@
     <t>Number of participants in the population.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.sampleSize.numberOfStudies` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.numberOfStudies` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.sampleSize.numberOfStudies` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:numberOfStudies.id</t>
@@ -745,9 +707,6 @@
     <t>Extension.extension:sampleSize.extension:numberOfStudies.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.numberOfStudies</t>
-  </si>
-  <si>
     <t>Extension.extension:sampleSize.extension:numberOfStudies.value[x]</t>
   </si>
   <si>
@@ -763,8 +722,7 @@
     <t>A human-readable string to clarify or explain concepts about the sample size.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.sampleSize.numberOfParticipants` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.numberOfParticipants` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.sampleSize.numberOfParticipants` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:numberOfParticipants.id</t>
@@ -776,9 +734,6 @@
     <t>Extension.extension:sampleSize.extension:numberOfParticipants.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.numberOfParticipants</t>
-  </si>
-  <si>
     <t>Extension.extension:sampleSize.extension:numberOfParticipants.value[x]</t>
   </si>
   <si>
@@ -794,8 +749,7 @@
     <t>Number of participants with known results for measured variables.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.sampleSize.knownDataCount` is part of an existing definition because parent element `Evidence.statistic.sampleSize` requires a cross-version extension.
-Element `Evidence.statistic.sampleSize.knownDataCount` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.sampleSize.knownDataCount` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.extension:knownDataCount.id</t>
@@ -807,16 +761,10 @@
     <t>Extension.extension:sampleSize.extension:knownDataCount.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize.knownDataCount</t>
-  </si>
-  <si>
     <t>Extension.extension:sampleSize.extension:knownDataCount.value[x]</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.sampleSize</t>
   </si>
   <si>
     <t>Extension.extension:sampleSize.value[x]</t>
@@ -844,8 +792,7 @@
     <t>A statistical attribute of the statistic such as a measure of heterogeneity.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.attributeEstimate` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.id</t>
@@ -863,8 +810,7 @@
     <t>Human-readable summary of the estimate.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.attributeEstimate.description` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.attributeEstimate.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:description.id</t>
@@ -876,9 +822,6 @@
     <t>Extension.extension:attributeEstimate.extension:description.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.description</t>
-  </si>
-  <si>
     <t>Extension.extension:attributeEstimate.extension:description.value[x]</t>
   </si>
   <si>
@@ -891,8 +834,7 @@
     <t>Footnote or explanatory note about the estimate.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.attributeEstimate.note` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.attributeEstimate.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:note.id</t>
@@ -904,9 +846,6 @@
     <t>Extension.extension:attributeEstimate.extension:note.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.note</t>
-  </si>
-  <si>
     <t>Extension.extension:attributeEstimate.extension:note.value[x]</t>
   </si>
   <si>
@@ -922,8 +861,7 @@
     <t>The type of attribute estimate, e.g., confidence interval or p value.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.attributeEstimate.type` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate.type` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.attributeEstimate.type` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:type.id</t>
@@ -935,13 +873,10 @@
     <t>Extension.extension:attributeEstimate.extension:type.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.type</t>
-  </si>
-  <si>
     <t>Extension.extension:attributeEstimate.extension:type.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-attribute-estimate-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-attribute-estimate-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:quantity</t>
@@ -956,8 +891,7 @@
     <t>Often the p value</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.attributeEstimate.quantity` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate.quantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.attributeEstimate.quantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:quantity.id</t>
@@ -969,9 +903,6 @@
     <t>Extension.extension:attributeEstimate.extension:quantity.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.quantity</t>
-  </si>
-  <si>
     <t>Extension.extension:attributeEstimate.extension:quantity.value[x]</t>
   </si>
   <si>
@@ -987,8 +918,7 @@
     <t>Use 95 for a 95% confidence interval.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.attributeEstimate.level` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate.level` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.attributeEstimate.level` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:level.id</t>
@@ -998,9 +928,6 @@
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:level.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.level</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:level.value[x]</t>
@@ -1022,8 +949,7 @@
     <t>Lower bound of confidence interval.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.attributeEstimate.range` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate.range` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.attributeEstimate.range` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:range.id</t>
@@ -1033,9 +959,6 @@
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:range.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.attributeEstimate.range</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:range.value[x]</t>
@@ -1054,8 +977,7 @@
     <t>A nested attribute estimate; which is the attribute estimate of an attribute estimate.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.attributeEstimate.attributeEstimate` is part of an existing definition because parent element `Evidence.statistic.attributeEstimate` requires a cross-version extension.
-Element `Evidence.statistic.attributeEstimate.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.attributeEstimate.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:attributeEstimate.extension:attributeEstimate.id</t>
@@ -1091,8 +1013,7 @@
     <t>A component of the method to generate the statistic.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic` is part of an existing definition because parent element `Evidence.statistic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.id</t>
@@ -1113,8 +1034,7 @@
     <t>Description of a component of the method to generate the statistic.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.code` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.code` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic.code` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:code.id</t>
@@ -1126,13 +1046,10 @@
     <t>Extension.extension:modelCharacteristic.extension:code.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.code</t>
-  </si>
-  <si>
     <t>Extension.extension:modelCharacteristic.extension:code.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-statistic-model-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-statistic-model-code-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:value</t>
@@ -1147,8 +1064,7 @@
     <t>Further specification of the quantified value of the component of the method to generate the statistic.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.value` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.value` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic.value` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:value.id</t>
@@ -1160,13 +1076,10 @@
     <t>Extension.extension:modelCharacteristic.extension:value.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.value</t>
-  </si>
-  <si>
     <t>Extension.extension:modelCharacteristic.extension:value.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1182,8 +1095,7 @@
     <t>A variable adjusted for in the adjusted analysis.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.variable` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic.variable` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.id</t>
@@ -1204,8 +1116,7 @@
     <t>Description of the variable.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Evidence.statistic.modelCharacteristic.variable.variableDefinition` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
@@ -1227,16 +1138,13 @@
     <t>Extension.extension.extension.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.variableDefinition</t>
-  </si>
-  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:variableDefinition.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1)
 </t>
   </si>
   <si>
@@ -1252,8 +1160,7 @@
     <t>How the variable is classified for use in adjusted analysis.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.variable.handling` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.handling` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic.variable.handling` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:handling.id</t>
@@ -1263,9 +1170,6 @@
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:handling.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.handling</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:handling.value[x]</t>
@@ -1278,7 +1182,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-variable-handling-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-variable-handling-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory</t>
@@ -1293,8 +1197,7 @@
     <t>Description for grouping of ordinal or polychotomous variables.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic.variable.valueCategory` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory.id</t>
@@ -1306,9 +1209,6 @@
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.valueCategory</t>
-  </si>
-  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueCategory.value[x]</t>
   </si>
   <si>
@@ -1324,8 +1224,7 @@
     <t>Discrete value for grouping of ordinal or polychotomous variables.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic.variable.valueQuantity` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueQuantity.id</t>
@@ -1337,9 +1236,6 @@
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueQuantity.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.valueQuantity</t>
-  </si>
-  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueQuantity.value[x]</t>
   </si>
   <si>
@@ -1355,8 +1251,7 @@
     <t>Range of values for grouping of ordinal or polychotomous variables.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.variable.valueRange` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic.variable` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.variable.valueRange` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic.variable.valueRange` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueRange.id</t>
@@ -1368,18 +1263,12 @@
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueRange.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable.valueRange</t>
-  </si>
-  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.extension:valueRange.value[x]</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic.variable</t>
-  </si>
-  <si>
     <t>Extension.extension:modelCharacteristic.extension:variable.value[x]</t>
   </si>
   <si>
@@ -1392,8 +1281,7 @@
     <t>An attribute of the statistic used as a model characteristic.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic.modelCharacteristic.attributeEstimate` is part of an existing definition because parent element `Evidence.statistic.modelCharacteristic` requires a cross-version extension.
-Element `Evidence.statistic.modelCharacteristic.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic.modelCharacteristic.attributeEstimate` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.extension:attributeEstimate.id</t>
@@ -1409,9 +1297,6 @@
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic.modelCharacteristic</t>
   </si>
   <si>
     <t>Extension.extension:modelCharacteristic.value[x]</t>
@@ -1765,7 +1650,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.2578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2560,72 +2445,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2648,7 +2533,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2705,33 +2590,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2756,14 +2641,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2832,7 +2717,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2935,7 +2820,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -3040,7 +2925,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -3083,7 +2968,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3125,30 +3010,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3171,13 +3056,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3228,33 +3113,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3279,14 +3164,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3355,7 +3240,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3458,7 +3343,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3563,7 +3448,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3606,7 +3491,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3648,30 +3533,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3694,13 +3579,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3727,11 +3612,11 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3749,33 +3634,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3800,16 +3685,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3878,7 +3763,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3981,7 +3866,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -4086,7 +3971,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -4129,7 +4014,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4171,30 +4056,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4217,16 +4102,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4276,33 +4161,33 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4327,14 +4212,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4403,7 +4288,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4506,7 +4391,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4611,7 +4496,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4654,7 +4539,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4696,30 +4581,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4742,13 +4627,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4799,33 +4684,33 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4850,16 +4735,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4928,7 +4813,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -5031,7 +4916,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -5136,7 +5021,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -5179,7 +5064,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5221,30 +5106,30 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5267,16 +5152,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5326,33 +5211,33 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5377,16 +5262,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5455,7 +5340,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5558,7 +5443,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5663,7 +5548,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5706,7 +5591,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5748,30 +5633,30 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5794,16 +5679,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5853,33 +5738,33 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5904,14 +5789,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5980,7 +5865,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6083,7 +5968,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6186,7 +6071,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
@@ -6217,14 +6102,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6293,10 +6178,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6396,10 +6281,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6501,10 +6386,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6544,7 +6429,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6586,30 +6471,30 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6632,13 +6517,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6689,33 +6574,33 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6740,14 +6625,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6816,10 +6701,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6919,10 +6804,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7024,10 +6909,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7067,7 +6952,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7109,30 +6994,30 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7155,13 +7040,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7212,33 +7097,33 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7263,14 +7148,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7339,10 +7224,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7442,10 +7327,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7547,10 +7432,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7590,7 +7475,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7632,30 +7517,30 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7678,13 +7563,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7735,33 +7620,33 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7786,14 +7671,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7862,10 +7747,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7965,10 +7850,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8070,10 +7955,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8113,7 +7998,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8155,30 +8040,30 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8201,13 +8086,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8258,33 +8143,33 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8309,14 +8194,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8385,10 +8270,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8488,10 +8373,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8593,10 +8478,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8636,7 +8521,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8678,30 +8563,30 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8724,13 +8609,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8781,27 +8666,27 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK67" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8844,7 +8729,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8886,30 +8771,30 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8932,13 +8817,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8989,33 +8874,33 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK69" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9040,14 +8925,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9116,7 +9001,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9219,7 +9104,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9322,7 +9207,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
@@ -9353,14 +9238,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9429,10 +9314,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9532,10 +9417,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9637,10 +9522,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9680,7 +9565,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>274</v>
+        <v>100</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9722,30 +9607,30 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9768,13 +9653,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9825,33 +9710,33 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK77" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9876,14 +9761,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9952,10 +9837,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10055,10 +9940,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10160,10 +10045,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10203,7 +10088,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10245,30 +10130,30 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10291,13 +10176,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10348,33 +10233,33 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK82" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10399,14 +10284,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10475,10 +10360,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10578,10 +10463,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10683,10 +10568,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10726,7 +10611,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10768,30 +10653,30 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10814,13 +10699,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10847,11 +10732,11 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10869,33 +10754,33 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK87" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10920,16 +10805,16 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10998,10 +10883,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11101,10 +10986,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11206,10 +11091,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11249,7 +11134,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11291,30 +11176,30 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11337,16 +11222,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11396,33 +11281,33 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK92" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11447,14 +11332,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11523,10 +11408,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11626,10 +11511,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11731,10 +11616,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11774,7 +11659,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11816,30 +11701,30 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11862,13 +11747,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11919,33 +11804,33 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK97" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11970,14 +11855,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12046,10 +11931,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12149,10 +12034,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12254,10 +12139,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12297,7 +12182,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12339,30 +12224,30 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12385,13 +12270,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12442,33 +12327,33 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK102" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12493,16 +12378,16 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12571,10 +12456,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12674,10 +12559,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12779,10 +12664,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12822,7 +12707,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12864,30 +12749,30 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12910,13 +12795,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12967,27 +12852,27 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK107" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>113</v>
@@ -13030,7 +12915,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13072,30 +12957,30 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13118,13 +13003,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13175,33 +13060,33 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK109" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13226,14 +13111,14 @@
         <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13302,7 +13187,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>105</v>
@@ -13405,7 +13290,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>107</v>
@@ -13508,13 +13393,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13539,14 +13424,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13615,10 +13500,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13718,10 +13603,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13823,10 +13708,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13866,7 +13751,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13908,30 +13793,30 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK116" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13954,13 +13839,13 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -13987,11 +13872,11 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14009,33 +13894,33 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK117" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14060,14 +13945,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14136,10 +14021,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14239,10 +14124,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14344,10 +14229,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14387,7 +14272,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14429,30 +14314,30 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK121" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14475,13 +14360,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14532,33 +14417,33 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK122" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14583,14 +14468,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14659,10 +14544,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14762,10 +14647,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14865,13 +14750,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -14896,14 +14781,14 @@
         <v>93</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -14972,10 +14857,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15075,10 +14960,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15180,10 +15065,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15223,7 +15108,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15265,30 +15150,30 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK129" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15311,13 +15196,13 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -15368,33 +15253,33 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK130" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15419,14 +15304,14 @@
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15495,10 +15380,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15598,10 +15483,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15703,10 +15588,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15746,7 +15631,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15788,30 +15673,30 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15834,13 +15719,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -15867,11 +15752,11 @@
         <v>77</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="Y135" s="2"/>
       <c r="Z135" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>77</v>
@@ -15889,33 +15774,33 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK135" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -15940,14 +15825,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16016,10 +15901,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16119,10 +16004,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16224,10 +16109,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16267,7 +16152,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16309,30 +16194,30 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK139" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16355,13 +16240,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16412,33 +16297,33 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK140" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16463,14 +16348,14 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16539,10 +16424,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16642,10 +16527,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16747,10 +16632,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16790,7 +16675,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -16832,30 +16717,30 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK144" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16878,13 +16763,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -16935,33 +16820,33 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK145" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -16986,14 +16871,14 @@
         <v>93</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17062,10 +16947,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17165,10 +17050,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17270,10 +17155,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17313,7 +17198,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17355,30 +17240,30 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK149" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17401,13 +17286,13 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17458,30 +17343,30 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK150" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17521,7 +17406,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17563,30 +17448,30 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK151" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17609,13 +17494,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17666,33 +17551,33 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK152" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -17717,14 +17602,14 @@
         <v>93</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -17793,10 +17678,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17896,10 +17781,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18001,10 +17886,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18044,7 +17929,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18086,30 +17971,30 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK156" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18132,13 +18017,13 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -18189,27 +18074,27 @@
         <v>77</v>
       </c>
       <c r="AF157" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK157" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>113</v>
@@ -18252,7 +18137,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>445</v>
+        <v>321</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>77</v>
@@ -18294,30 +18179,30 @@
         <v>77</v>
       </c>
       <c r="AF158" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK158" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18340,13 +18225,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -18397,30 +18282,30 @@
         <v>77</v>
       </c>
       <c r="AF159" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK159" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18502,30 +18387,30 @@
         <v>77</v>
       </c>
       <c r="AF160" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK160" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18548,13 +18433,13 @@
         <v>77</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -18605,22 +18490,22 @@
         <v>77</v>
       </c>
       <c r="AF161" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK161" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
